--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H2">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I2">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J2">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N2">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O2">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P2">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q2">
-        <v>252.045096419545</v>
+        <v>384.1470421371426</v>
       </c>
       <c r="R2">
-        <v>2268.405867775904</v>
+        <v>3457.323379234284</v>
       </c>
       <c r="S2">
-        <v>0.2650529156034674</v>
+        <v>0.2755061360353833</v>
       </c>
       <c r="T2">
-        <v>0.2650529156034674</v>
+        <v>0.2755061360353832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H3">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I3">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J3">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.435054</v>
       </c>
       <c r="O3">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P3">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q3">
-        <v>13.541115390784</v>
+        <v>13.248536365596</v>
       </c>
       <c r="R3">
-        <v>121.870038517056</v>
+        <v>119.236827290364</v>
       </c>
       <c r="S3">
-        <v>0.01423996009379203</v>
+        <v>0.009501708100895706</v>
       </c>
       <c r="T3">
-        <v>0.01423996009379204</v>
+        <v>0.009501708100895706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312821333333335</v>
+        <v>6.176422</v>
       </c>
       <c r="H4">
-        <v>18.938464</v>
+        <v>18.529266</v>
       </c>
       <c r="I4">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="J4">
-        <v>0.3104630857074662</v>
+        <v>0.3058063741187975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.085853</v>
       </c>
       <c r="O4">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P4">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q4">
-        <v>29.64049110553245</v>
+        <v>29.00005745265533</v>
       </c>
       <c r="R4">
-        <v>266.7644199497921</v>
+        <v>261.000517073898</v>
       </c>
       <c r="S4">
-        <v>0.03117021001020672</v>
+        <v>0.02079852998251858</v>
       </c>
       <c r="T4">
-        <v>0.03117021001020672</v>
+        <v>0.02079852998251858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>28.064909</v>
       </c>
       <c r="I5">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J5">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N5">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O5">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P5">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q5">
-        <v>373.5056177159221</v>
+        <v>581.8391176530185</v>
       </c>
       <c r="R5">
-        <v>3361.550559443299</v>
+        <v>5236.552058877166</v>
       </c>
       <c r="S5">
-        <v>0.3927819044140006</v>
+        <v>0.4172887710055354</v>
       </c>
       <c r="T5">
-        <v>0.3927819044140006</v>
+        <v>0.4172887710055353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.064909</v>
       </c>
       <c r="I6">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J6">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.435054</v>
       </c>
       <c r="O6">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P6">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q6">
         <v>20.066578324454</v>
@@ -818,10 +818,10 @@
         <v>180.599204920086</v>
       </c>
       <c r="S6">
-        <v>0.02110219626026191</v>
+        <v>0.01439153462399433</v>
       </c>
       <c r="T6">
-        <v>0.02110219626026191</v>
+        <v>0.01439153462399433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.064909</v>
       </c>
       <c r="I7">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="J7">
-        <v>0.4600752335690602</v>
+        <v>0.4631823009753332</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.085853</v>
       </c>
       <c r="O7">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P7">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q7">
         <v>43.92424251470856</v>
@@ -880,10 +880,10 @@
         <v>395.318182632377</v>
       </c>
       <c r="S7">
-        <v>0.04619113289479763</v>
+        <v>0.03150199534580353</v>
       </c>
       <c r="T7">
-        <v>0.04619113289479763</v>
+        <v>0.03150199534580353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.997322</v>
       </c>
       <c r="I8">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J8">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N8">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O8">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P8">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q8">
-        <v>186.285243254438</v>
+        <v>290.191195060892</v>
       </c>
       <c r="R8">
-        <v>1676.567189289942</v>
+        <v>2611.720755548028</v>
       </c>
       <c r="S8">
-        <v>0.1958992559660888</v>
+        <v>0.208122010826714</v>
       </c>
       <c r="T8">
-        <v>0.1958992559660887</v>
+        <v>0.2081220108267139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.997322</v>
       </c>
       <c r="I9">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J9">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.435054</v>
       </c>
       <c r="O9">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P9">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q9">
         <v>10.008169213932</v>
       </c>
       <c r="R9">
-        <v>90.07352292538799</v>
+        <v>90.073522925388</v>
       </c>
       <c r="S9">
-        <v>0.0105246817640521</v>
+        <v>0.007177751554661998</v>
       </c>
       <c r="T9">
-        <v>0.0105246817640521</v>
+        <v>0.007177751554661998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.997322</v>
       </c>
       <c r="I10">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="J10">
-        <v>0.2294616807234737</v>
+        <v>0.2310113249058692</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.085853</v>
       </c>
       <c r="O10">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P10">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q10">
         <v>21.907135565074</v>
@@ -1066,10 +1066,10 @@
         <v>197.164220085666</v>
       </c>
       <c r="S10">
-        <v>0.02303774299333287</v>
+        <v>0.01571156252449325</v>
       </c>
       <c r="T10">
-        <v>0.02303774299333286</v>
+        <v>0.01571156252449325</v>
       </c>
     </row>
   </sheetData>
